--- a/src/main/resources/static/templates/Supplier_Import_Template.xlsx
+++ b/src/main/resources/static/templates/Supplier_Import_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\S\F\CP\Development\CP_GSM\GSM\src\main\resources\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538C4FBD-7E95-4474-A578-49F23E3AA043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073240D3-B86B-4289-B847-58E18561333E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{527B4C7A-F551-4B1F-93DD-EB6382B48BD2}"/>
   </bookViews>
@@ -36,21 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>SupplierCode</t>
-  </si>
-  <si>
-    <t>SupplierName</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ContactEmail</t>
   </si>
   <si>
     <t>ContactPhone</t>
+  </si>
+  <si>
+    <t>DeliveryTerm</t>
+  </si>
+  <si>
+    <t>PaymentTerm</t>
+  </si>
+  <si>
+    <t>SupplierCode*</t>
+  </si>
+  <si>
+    <t>SupplierName*</t>
+  </si>
+  <si>
+    <t>Address*</t>
+  </si>
+  <si>
+    <t>CurrencyCode*</t>
+  </si>
+  <si>
+    <t>TaxRate*</t>
+  </si>
+  <si>
+    <t>CountryCode*</t>
   </si>
 </sst>
 </file>
@@ -92,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,37 +446,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9910FF-D448-4F44-B857-A2994652FF09}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
